--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -20,9 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">Username</t>
+  </si>
   <si>
     <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utkarsh</t>
   </si>
   <si>
     <t xml:space="preserve">Utkarsh@1</t>
@@ -158,42 +164,46 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
